--- a/Informations_File.xlsx
+++ b/Informations_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/andrea_baietti_global_ntt/Documents/Documents/GitHub/Meraki_Modify_AP_Details/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="11_EE1941CC463C7614B50C5EEE8BEC2EF674BAB139" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23EE29D3-9F87-4F97-948F-CA8C69078815}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="11_EE1941CC463C7614B50C5EEE8BEC2EF674BAB139" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D341BA8-2DA4-416F-9678-9A0F329681A2}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,13 +84,13 @@
     <t>SSID1,SSID3,SSID5</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>NET01</t>
-  </si>
-  <si>
-    <t>NET02</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>via Pinco 3, Milano</t>
+  </si>
+  <si>
+    <t>via Naso 17, Roma</t>
   </si>
 </sst>
 </file>
@@ -450,114 +450,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -578,6 +576,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BD9C4B1350A184C84C574120F9CECEA" ma:contentTypeVersion="8" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ffd8fff07b494ffa81958e02a85eb618">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="462a83ca-c875-4ac3-b27a-16bd04d051cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb4ef2f27dde3d5bcf6b430089ab4b2a" ns2:_="">
     <xsd:import namespace="462a83ca-c875-4ac3-b27a-16bd04d051cc"/>
@@ -749,15 +756,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{251334C5-9238-4F00-B2CB-8B688778B4BC}">
   <ds:schemaRefs>
@@ -768,6 +766,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABB74F-1FAF-4614-95A2-E297AF19826B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF7495A-01F8-444C-B3A5-FA6287DD379A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -783,12 +789,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABB74F-1FAF-4614-95A2-E297AF19826B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>